--- a/inst/scripts/examples/trap_example/example_without_trap.xlsx
+++ b/inst/scripts/examples/trap_example/example_without_trap.xlsx
@@ -880,9 +880,7 @@
       <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="18">
-        <v>-1.0</v>
-      </c>
+      <c r="I5" s="18"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
       <c r="L5" s="1"/>
